--- a/Υλικά_Κατασκευής.xlsx
+++ b/Υλικά_Κατασκευής.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdaka\Documents\2020-2021\ΜΝΑΕ-2020-21\ΕΞΥΠΝΟ_ΕΡΓΑΣΤΗΡΙΟ\ΥΛΙΚΑ_ΚΑΤΑΣΚΕΥΗΣ_ΕΠΕΞΗΓΗΣΗΣ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159E13E9-A658-41F9-AC1F-FD71631B3101}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1058E90F-91D7-43D8-9BAF-343ED5A25C5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="80">
   <si>
     <t>Προϊόν</t>
   </si>
@@ -202,9 +202,6 @@
     <t>Potentiometer Linear B500Kohm - D6mm H9mm PCB Κωδικός: 05-01614822</t>
   </si>
   <si>
-    <t>Potentiometer Linear B50Kohm - D6mm H9mm PCB</t>
-  </si>
-  <si>
     <t>https://grobotronics.com/potentiometer-linear-b50kohm-d6mm-h9mm-pcb.html</t>
   </si>
   <si>
@@ -251,14 +248,42 @@
   </si>
   <si>
     <t>https://grobotronics.com/potentiometer-linear-b10kohm-d6mm-h9mm.html</t>
+  </si>
+  <si>
+    <t>Potentiometer Linear B50Kohm - D6mm H9mm PCB Κωδικός: 05-01614827</t>
+  </si>
+  <si>
+    <t>Connector for Led Strip 8mm Single Color Κωδικός: 05-00038058</t>
+  </si>
+  <si>
+    <t>https://grobotronics.com/connector-for-led-strip-8mm-single-color-el.html</t>
+  </si>
+  <si>
+    <t>Micro SD 32GB - Pre-Loaded with NOOBS Κωδικός: 06-00014869</t>
+  </si>
+  <si>
+    <t>ESP32 Development Board - NodeMCU-32S, Κωδικός: 31-00016611</t>
+  </si>
+  <si>
+    <t>Καλώδιο USB 2.0 A σε USB B micro - Υφασμάτινο (Τυχαία Χρώματα) Κωδικός: 19-00010188</t>
+  </si>
+  <si>
+    <t>https://grobotronics.com/usb-cable-2.0-micro-a-b-textile-colors.html</t>
+  </si>
+  <si>
+    <t>Electrolytic Capacitor 16V 1000UF Κωδικός είδους: 070.9687</t>
+  </si>
+  <si>
+    <t>Εκκρεμεί (50*2) 7 inch waveshare display</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -300,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -324,6 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -1182,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477A9210-597B-45F0-B2A8-9799A0124697}">
-  <dimension ref="A2:H33"/>
+  <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1321,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -1361,7 +1387,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="3">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -1395,7 +1421,7 @@
     <row r="11" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1409,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1417,7 +1443,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1431,7 +1457,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1453,7 +1479,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1461,7 +1487,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1475,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1483,7 +1509,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1497,7 +1523,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1505,7 +1531,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1519,15 +1545,13 @@
         <v>5</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
       <c r="B17" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1535,109 +1559,109 @@
         <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="G18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    </row>
+    <row r="20" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4.34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>17</v>
-      </c>
       <c r="B20" s="6" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
-        <v>0.1</v>
+        <v>4.34</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F21" s="3">
-        <v>119.99</v>
+        <v>0.1</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1645,43 +1669,43 @@
         <v>2</v>
       </c>
       <c r="F22" s="3">
-        <v>50</v>
+        <v>119.99</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3">
-        <v>5.9</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1689,21 +1713,21 @@
         <v>1</v>
       </c>
       <c r="F24" s="3">
-        <v>64.900000000000006</v>
+        <v>5.9</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1711,21 +1735,21 @@
         <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>9.9</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1733,21 +1757,21 @@
         <v>1</v>
       </c>
       <c r="F26" s="3">
-        <v>11.9</v>
+        <v>9.9</v>
       </c>
       <c r="G26" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1755,21 +1779,21 @@
         <v>1</v>
       </c>
       <c r="F27" s="3">
-        <v>13</v>
+        <v>11.9</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1777,21 +1801,21 @@
         <v>1</v>
       </c>
       <c r="F28" s="3">
-        <v>24.9</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
         <v>5</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1799,81 +1823,113 @@
         <v>1</v>
       </c>
       <c r="F29" s="3">
-        <v>2.2000000000000002</v>
+        <v>24.9</v>
       </c>
       <c r="G29" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="F30" s="3"/>
+      <c r="A30" s="2">
+        <v>26</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="F31" s="3">
-        <f>SUM((F3*E3)+(F4*E4)+(F5*E5)+(F9*E9)+(F10*E10)+(F11*E11)+(F12*E12)+(F13*E13)+(F14*E14)+(F15*E15)+(F16*E16)+(F17*E17)+(F18*E18)+(F23*E23)+(F24*E24)+(F25*E25)+(F26*E26)+(F28*E28)+(F29*E29))</f>
-        <v>161.70000000000002</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="F32" s="3">
-        <f>SUM((F6*E6)+(F7*E7)+(F8*E8)+(F19*E19)+(F20*E20)+(F21*E21)+(F22*E22)+(F27*E27))</f>
-        <v>386.98</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+        <f>SUM((F3*E3)+(F4*E4)+(F5*E5)+(F9*E9)+(F10*E10)+(F11*E11)+(F12*E12)+(F13*E13)+(F14*E14)+(F15*E15)+(F16*E16)+(F17*E17)+(F18*E18)+(F19*E19)+(F24*E24)+(F25*E25)+(F26*E26)+(F27*E27)+(F28*E28)+(F29*E29)+(F30*E30))</f>
+        <v>175.40000000000003</v>
+      </c>
+      <c r="G32">
+        <v>172.2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="F33" s="3">
-        <f>SUM(F31+F32)</f>
-        <v>548.68000000000006</v>
+        <f>SUM((F6*E6)+(F7*E7)+(F8*E8)+(F20*E20)+(F21*E21)+(F22*E22)+(F23*E23))</f>
+        <v>369.98</v>
+      </c>
+      <c r="G33" s="11">
+        <v>217.72</v>
+      </c>
+      <c r="H33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="F34" s="3">
+        <f>SUM(F32+F33)</f>
+        <v>545.38000000000011</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="B28:D28"/>
+  <mergeCells count="32">
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -1889,21 +1945,21 @@
     <hyperlink ref="H7" r:id="rId4" xr:uid="{47C8A71C-49A9-4669-BFA5-B278F6BBF6CE}"/>
     <hyperlink ref="H8" r:id="rId5" xr:uid="{5FEB2DC6-1992-487F-81F7-7FAB9AA36B98}"/>
     <hyperlink ref="H9" r:id="rId6" xr:uid="{CF60E659-B95F-404C-ABDA-FDE7F18153D9}"/>
-    <hyperlink ref="H20" r:id="rId7" xr:uid="{1CEBF6EC-BC58-46BF-A4A0-875E758BC8EF}"/>
-    <hyperlink ref="H21" r:id="rId8" xr:uid="{4428B971-846F-42E8-BEE8-ACC7B8FCCCB8}"/>
-    <hyperlink ref="H22" r:id="rId9" xr:uid="{38325C7C-C9A7-4E26-8892-05EA5F9C9EE3}"/>
-    <hyperlink ref="H23" r:id="rId10" xr:uid="{D4ACE1CC-269A-403C-BA7E-73C0DD224468}"/>
-    <hyperlink ref="H24" r:id="rId11" xr:uid="{1C3E4462-AB48-4658-AC00-4F97875D5115}"/>
-    <hyperlink ref="H25" r:id="rId12" xr:uid="{4255AED1-17F4-43D2-A76D-ADA9105E5171}"/>
-    <hyperlink ref="H26" r:id="rId13" xr:uid="{79ECA198-CBFF-44B4-92AE-9ECD7C72AEA3}"/>
-    <hyperlink ref="H27" r:id="rId14" xr:uid="{0F4ABA1E-FFC2-4BA3-8EF0-25D0D972ABE5}"/>
-    <hyperlink ref="H28" r:id="rId15" xr:uid="{C11D78B2-7153-4A83-AA9A-90C7B910F471}"/>
-    <hyperlink ref="H29" r:id="rId16" xr:uid="{F5B1DDA7-F945-457D-B967-A2A85B3028DF}"/>
+    <hyperlink ref="H21" r:id="rId7" xr:uid="{1CEBF6EC-BC58-46BF-A4A0-875E758BC8EF}"/>
+    <hyperlink ref="H22" r:id="rId8" xr:uid="{4428B971-846F-42E8-BEE8-ACC7B8FCCCB8}"/>
+    <hyperlink ref="H23" r:id="rId9" xr:uid="{38325C7C-C9A7-4E26-8892-05EA5F9C9EE3}"/>
+    <hyperlink ref="H24" r:id="rId10" xr:uid="{D4ACE1CC-269A-403C-BA7E-73C0DD224468}"/>
+    <hyperlink ref="H25" r:id="rId11" xr:uid="{1C3E4462-AB48-4658-AC00-4F97875D5115}"/>
+    <hyperlink ref="H26" r:id="rId12" xr:uid="{4255AED1-17F4-43D2-A76D-ADA9105E5171}"/>
+    <hyperlink ref="H27" r:id="rId13" xr:uid="{79ECA198-CBFF-44B4-92AE-9ECD7C72AEA3}"/>
+    <hyperlink ref="H28" r:id="rId14" xr:uid="{0F4ABA1E-FFC2-4BA3-8EF0-25D0D972ABE5}"/>
+    <hyperlink ref="H29" r:id="rId15" xr:uid="{C11D78B2-7153-4A83-AA9A-90C7B910F471}"/>
+    <hyperlink ref="H30" r:id="rId16" xr:uid="{F5B1DDA7-F945-457D-B967-A2A85B3028DF}"/>
     <hyperlink ref="H12" r:id="rId17" xr:uid="{EA8B69AF-999E-433D-9382-7A240EDDC3C0}"/>
     <hyperlink ref="H16" r:id="rId18" xr:uid="{1A32A325-C201-49F7-BC0A-8322FF8B1591}"/>
     <hyperlink ref="H15" r:id="rId19" xr:uid="{9107B60F-13BF-4DC9-80AF-443A6D404E9A}"/>
-    <hyperlink ref="H19" r:id="rId20" xr:uid="{7E607A5B-873B-40F4-98E5-ED17754C3369}"/>
-    <hyperlink ref="H18" r:id="rId21" xr:uid="{D479EF30-440F-4DBF-B5AA-DA83BE07AFB0}"/>
+    <hyperlink ref="H20" r:id="rId20" xr:uid="{7E607A5B-873B-40F4-98E5-ED17754C3369}"/>
+    <hyperlink ref="H19" r:id="rId21" xr:uid="{D479EF30-440F-4DBF-B5AA-DA83BE07AFB0}"/>
     <hyperlink ref="H3" r:id="rId22" xr:uid="{343876FA-A64D-42DD-B4B2-4D1B55C8CA86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Υλικά_Κατασκευής.xlsx
+++ b/Υλικά_Κατασκευής.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdaka\Documents\2020-2021\ΜΝΑΕ-2020-21\ΕΞΥΠΝΟ_ΕΡΓΑΣΤΗΡΙΟ\ΥΛΙΚΑ_ΚΑΤΑΣΚΕΥΗΣ_ΕΠΕΞΗΓΗΣΗΣ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdaka\Documents\GitHub\smartlaboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1058E90F-91D7-43D8-9BAF-343ED5A25C5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A70366-158C-4AC3-B5DF-052F42621B60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -338,18 +338,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -681,11 +681,11 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" t="s">
         <v>1</v>
       </c>
@@ -703,31 +703,31 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
         <v>9.9</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4">
         <v>1</v>
       </c>
@@ -745,11 +745,11 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5">
         <v>1</v>
       </c>
@@ -767,11 +767,11 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6">
         <v>2</v>
       </c>
@@ -789,11 +789,11 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7">
         <v>1</v>
       </c>
@@ -811,11 +811,11 @@
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8">
         <v>1</v>
       </c>
@@ -833,11 +833,11 @@
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9">
         <v>3</v>
       </c>
@@ -855,11 +855,11 @@
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10">
         <v>3</v>
       </c>
@@ -877,11 +877,11 @@
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11">
         <v>1</v>
       </c>
@@ -899,11 +899,11 @@
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12">
         <v>15</v>
       </c>
@@ -921,11 +921,11 @@
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="E13">
         <v>2</v>
       </c>
@@ -943,11 +943,11 @@
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14">
         <v>2</v>
       </c>
@@ -965,11 +965,11 @@
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="E15">
         <v>1</v>
       </c>
@@ -987,11 +987,11 @@
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
       <c r="E16">
         <v>1</v>
       </c>
@@ -1009,11 +1009,11 @@
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17">
         <v>1</v>
       </c>
@@ -1031,11 +1031,11 @@
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18">
         <v>1</v>
       </c>
@@ -1053,11 +1053,11 @@
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19">
         <v>1</v>
       </c>
@@ -1075,11 +1075,11 @@
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
       <c r="E20">
         <v>1</v>
       </c>
@@ -1097,11 +1097,11 @@
       <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21">
         <v>1</v>
       </c>
@@ -1123,33 +1123,33 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="F23" s="3">
         <f>SUM((F4*E4)+(F5*E5)+(F9*E9)+(F10*E10)+(F11*E11)+(F15*E15)+(F16*E16)+(F17*E17)+(F18*E18)+(F20*E20)+(F21*E21))</f>
         <v>132.80000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="F24" s="3">
         <f>SUM((F6*E6)+(F7*E7)+(F8*E8)+(F12*E12)+(F13*E13)+(F14*E14)+(F19*E19))</f>
         <v>382.64</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="F25" s="3">
         <f>SUM(F23+F24)</f>
         <v>515.44000000000005</v>
@@ -1157,11 +1157,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B17:D17"/>
@@ -1174,12 +1175,11 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" xr:uid="{CF368AAA-F7D0-4959-B99A-851F81D6BC17}"/>
@@ -1210,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477A9210-597B-45F0-B2A8-9799A0124697}">
   <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,11 +1224,11 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" t="s">
         <v>1</v>
       </c>
@@ -1246,18 +1246,18 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
         <v>9.9</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -1268,11 +1268,11 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4">
         <v>1</v>
       </c>
@@ -1290,11 +1290,11 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5">
         <v>1</v>
       </c>
@@ -1312,11 +1312,11 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6">
         <v>2</v>
       </c>
@@ -1334,11 +1334,11 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7">
         <v>1</v>
       </c>
@@ -1356,11 +1356,11 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8">
         <v>1</v>
       </c>
@@ -1378,11 +1378,11 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9">
         <v>10</v>
       </c>
@@ -1400,11 +1400,11 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1420,11 +1420,11 @@
     </row>
     <row r="11" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1442,11 +1442,11 @@
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12">
         <v>1</v>
       </c>
@@ -1464,11 +1464,11 @@
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="E13">
         <v>1</v>
       </c>
@@ -1486,11 +1486,11 @@
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14">
         <v>1</v>
       </c>
@@ -1508,11 +1508,11 @@
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="E15">
         <v>2</v>
       </c>
@@ -1530,11 +1530,11 @@
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
       <c r="E16">
         <v>1</v>
       </c>
@@ -1550,11 +1550,11 @@
     </row>
     <row r="17" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17">
         <v>1</v>
       </c>
@@ -1572,11 +1572,11 @@
       <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18">
         <v>1</v>
       </c>
@@ -1594,11 +1594,11 @@
       <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1616,11 +1616,11 @@
       <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
       <c r="E20">
         <v>1</v>
       </c>
@@ -1638,11 +1638,11 @@
       <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21">
         <v>15</v>
       </c>
@@ -1660,11 +1660,11 @@
       <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
       <c r="E22">
         <v>2</v>
       </c>
@@ -1682,11 +1682,11 @@
       <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23">
         <v>2</v>
       </c>
@@ -1704,11 +1704,11 @@
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="E24">
         <v>1</v>
       </c>
@@ -1726,11 +1726,11 @@
       <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="E25">
         <v>1</v>
       </c>
@@ -1748,11 +1748,11 @@
       <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26">
         <v>1</v>
       </c>
@@ -1770,11 +1770,11 @@
       <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
       <c r="E27">
         <v>1</v>
       </c>
@@ -1792,11 +1792,11 @@
       <c r="A28" s="2">
         <v>24</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
       <c r="E28">
         <v>1</v>
       </c>
@@ -1814,11 +1814,11 @@
       <c r="A29" s="2">
         <v>25</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
       <c r="E29">
         <v>1</v>
       </c>
@@ -1836,11 +1836,11 @@
       <c r="A30" s="2">
         <v>26</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
       <c r="E30">
         <v>2</v>
       </c>
@@ -1862,11 +1862,11 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
       <c r="F32" s="3">
         <f>SUM((F3*E3)+(F4*E4)+(F5*E5)+(F9*E9)+(F10*E10)+(F11*E11)+(F12*E12)+(F13*E13)+(F14*E14)+(F15*E15)+(F16*E16)+(F17*E17)+(F18*E18)+(F19*E19)+(F24*E24)+(F25*E25)+(F26*E26)+(F27*E27)+(F28*E28)+(F29*E29)+(F30*E30))</f>
         <v>175.40000000000003</v>
@@ -1876,16 +1876,16 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
       <c r="F33" s="3">
         <f>SUM((F6*E6)+(F7*E7)+(F8*E8)+(F20*E20)+(F21*E21)+(F22*E22)+(F23*E23))</f>
         <v>369.98</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="8">
         <v>217.72</v>
       </c>
       <c r="H33" t="s">
@@ -1893,23 +1893,36 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
       <c r="F34" s="3">
         <f>SUM(F32+F33)</f>
         <v>545.38000000000011</v>
       </c>
+      <c r="G34" s="8">
+        <f>SUM(G32+G33)</f>
+        <v>389.91999999999996</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B16:D16"/>
@@ -1922,21 +1935,12 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" xr:uid="{C03586D2-1FF1-4740-A426-A68AD561379F}"/>
